--- a/biology/Médecine/Loge_crurale_latérale/Loge_crurale_latérale.xlsx
+++ b/biology/Médecine/Loge_crurale_latérale/Loge_crurale_latérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loge_crurale_lat%C3%A9rale</t>
+          <t>Loge_crurale_latérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge crurale latérale (ou loge externe de la jambe) est la loge musculaire latérale de la région de la jambe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loge_crurale_lat%C3%A9rale</t>
+          <t>Loge_crurale_latérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge crurale latérale est limitée en dedans par la face latérale de la fibula.
 En avant le septum intermusculaire antérieur de la jambe la sépare de la loge crurale antérieure entre le bord antérieur de la fibula et le fascia crural. Ce dernier forme sa limite superficielle.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loge_crurale_lat%C3%A9rale</t>
+          <t>Loge_crurale_latérale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
